--- a/medicine/Psychotrope/Brasserie_des_Carrières/Brasserie_des_Carrières.xlsx
+++ b/medicine/Psychotrope/Brasserie_des_Carrières/Brasserie_des_Carrières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brasserie_des_Carri%C3%A8res</t>
+          <t>Brasserie_des_Carrières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie des Carrières est une entreprise belge située dans le village  de Basècles faisant partie de la commune de Belœil en province de Hainaut. Elle produit principalement les bières Diôle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brasserie_des_Carri%C3%A8res</t>
+          <t>Brasserie_des_Carrières</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux amis, Julien Slabbinck muni d'une formation d'ingénieur brassicole et François Amorison qui a suivi des études d'ingénieur agronome, sont passionnés des produits du terroir et plus particulièrement de ceux qui touchent au secteur brassicole. Sur le site d'une ancienne scierie appartenant au grand-père de François Amorison, ils aménagent une brasserie qui produit son premier brassin de Diôle blonde commercialisé en décembre 2012. La brasserie se trouvant à proximité du site des anciennes carrières de marbre aujourd'hui inondées prend le nom de brasserie des Carrières.
-Le circuit court a été privilégié pour la conception de cette bière qui se veut 100 % naturelle. Deux fermes du village de Basècles fournissent l'orge qui est transformée en malt à la malterie du Château, la plus ancienne malterie de Belgique[1] située près du château de Belœil à 7 km de la brasserie. Le houblon provient en partie de plants cultivés sur les terres de la brasserie. Même les casiers à bouteilles en bois de peuplier sont issus d'une production locale.
+Le circuit court a été privilégié pour la conception de cette bière qui se veut 100 % naturelle. Deux fermes du village de Basècles fournissent l'orge qui est transformée en malt à la malterie du Château, la plus ancienne malterie de Belgique située près du château de Belœil à 7 km de la brasserie. Le houblon provient en partie de plants cultivés sur les terres de la brasserie. Même les casiers à bouteilles en bois de peuplier sont issus d'une production locale.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brasserie_des_Carri%C3%A8res</t>
+          <t>Brasserie_des_Carrières</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La brasserie produit cinq bières artisanales conçues sans additif ni épice. 
-Diôle blonde, une bière blonde dorée titrant 6,5 % en volume d'alcool élue meilleure bière blonde de Wallonie en 2014[2].
+Diôle blonde, une bière blonde dorée titrant 6,5 % en volume d'alcool élue meilleure bière blonde de Wallonie en 2014.
 Diôle ambrée, une bière ambrée titrant 7,5 % en volume d'alcool.
 Diôle brune, une bière brune titrant 8,5 % en volume d'alcool.
 Diôle de Noël, une bière de saison titrant 8,5 % en volume d'alcool élaborée avec 4 sortes de houblon.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brasserie_des_Carri%C3%A8res</t>
+          <t>Brasserie_des_Carrières</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Source et lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Unknown page », sur hainaut-terredegouts.be via Wikiwix (consulté le 16 juin 2023)
 site de la brasserie</t>
